--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf8-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf8-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02530666666666667</v>
+        <v>0.07200033333333333</v>
       </c>
       <c r="H2">
-        <v>0.07592</v>
+        <v>0.216001</v>
       </c>
       <c r="I2">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N2">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O2">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P2">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q2">
-        <v>0.009559078764444446</v>
+        <v>0.007640963374666666</v>
       </c>
       <c r="R2">
-        <v>0.08603170888</v>
+        <v>0.06876867037199999</v>
       </c>
       <c r="S2">
-        <v>0.0740879598063858</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="T2">
-        <v>0.0740879598063858</v>
+        <v>0.08094716512538253</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02530666666666667</v>
+        <v>0.07200033333333333</v>
       </c>
       <c r="H3">
-        <v>0.07592</v>
+        <v>0.216001</v>
       </c>
       <c r="I3">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>3.276869</v>
       </c>
       <c r="O3">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P3">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q3">
-        <v>0.02764221049777778</v>
+        <v>0.07864522009655556</v>
       </c>
       <c r="R3">
-        <v>0.24877989448</v>
+        <v>0.707806980869</v>
       </c>
       <c r="S3">
-        <v>0.2142418773591974</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="T3">
-        <v>0.2142418773591974</v>
+        <v>0.833155101696277</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02530666666666667</v>
+        <v>0.07200033333333333</v>
       </c>
       <c r="H4">
-        <v>0.07592</v>
+        <v>0.216001</v>
       </c>
       <c r="I4">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.3492260631569263</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,214 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N4">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O4">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P4">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q4">
-        <v>0.007857036720000002</v>
+        <v>0.008108269538111111</v>
       </c>
       <c r="R4">
-        <v>0.07071333048</v>
+        <v>0.072974425843</v>
       </c>
       <c r="S4">
-        <v>0.06089622599134308</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="T4">
-        <v>0.06089622599134307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.04715833333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.141475</v>
-      </c>
-      <c r="I5">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="J5">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.3777296666666667</v>
-      </c>
-      <c r="N5">
-        <v>1.133189</v>
-      </c>
-      <c r="O5">
-        <v>0.2121489992374768</v>
-      </c>
-      <c r="P5">
-        <v>0.2121489992374768</v>
-      </c>
-      <c r="Q5">
-        <v>0.01781310153055556</v>
-      </c>
-      <c r="R5">
-        <v>0.160317913775</v>
-      </c>
-      <c r="S5">
-        <v>0.138061039431091</v>
-      </c>
-      <c r="T5">
-        <v>0.138061039431091</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.04715833333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.141475</v>
-      </c>
-      <c r="I6">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="J6">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.092289666666667</v>
-      </c>
-      <c r="N6">
-        <v>3.276869</v>
-      </c>
-      <c r="O6">
-        <v>0.6134761976883921</v>
-      </c>
-      <c r="P6">
-        <v>0.6134761976883921</v>
-      </c>
-      <c r="Q6">
-        <v>0.05151056019722221</v>
-      </c>
-      <c r="R6">
-        <v>0.463595041775</v>
-      </c>
-      <c r="S6">
-        <v>0.3992343203291946</v>
-      </c>
-      <c r="T6">
-        <v>0.3992343203291946</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.04715833333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.141475</v>
-      </c>
-      <c r="I7">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="J7">
-        <v>0.6507739368430736</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.3104730000000001</v>
-      </c>
-      <c r="N7">
-        <v>0.9314190000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.174374803074131</v>
-      </c>
-      <c r="P7">
-        <v>0.174374803074131</v>
-      </c>
-      <c r="Q7">
-        <v>0.014641389225</v>
-      </c>
-      <c r="R7">
-        <v>0.131772503025</v>
-      </c>
-      <c r="S7">
-        <v>0.1134785770827879</v>
-      </c>
-      <c r="T7">
-        <v>0.1134785770827879</v>
+        <v>0.08589773317834046</v>
       </c>
     </row>
   </sheetData>
